--- a/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `PlanDefinition.actor` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `PlanDefinition.actor` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.actor` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:PlanDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.title` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.title` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.actor.title` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -418,7 +418,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.description` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.description` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.actor.description` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -450,7 +450,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.option` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.actor.option` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.id</t>
@@ -472,7 +472,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option.type` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.type` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.actor.option.type` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:type.id</t>
@@ -522,7 +522,8 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option.typeCanonical` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.typeCanonical` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `PlanDefinition.actor.option.typeCanonical` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeCanonical.id</t>
@@ -551,7 +552,8 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option.typeReference` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.typeReference` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PlanDefinition.actor.option.typeReference` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeReference.id</t>
@@ -583,7 +585,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option.role` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.role` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.actor.option.role` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:role.id</t>
@@ -964,7 +966,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="139.58203125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="206.00390625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="200">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `PlanDefinition.actor` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `PlanDefinition.actor` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.title` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.title` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor.title` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.title</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -418,7 +421,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.description` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.description` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor.description` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -450,7 +456,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.option` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor.option` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.id</t>
@@ -472,7 +478,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option.type` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.type` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor.option.type` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:type.id</t>
@@ -491,6 +497,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.type</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:type.value[x]</t>
@@ -523,7 +532,7 @@
   <si>
     <t>Element `PlanDefinition.actor.option.typeCanonical` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `PlanDefinition.actor.option.typeCanonical` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor.option.typeCanonical` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeCanonical.id</t>
@@ -533,6 +542,9 @@
   </si>
   <si>
     <t>Extension.extension:option.extension:typeCanonical.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.typeCanonical</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeCanonical.value[x]</t>
@@ -553,7 +565,7 @@
   <si>
     <t>Element `PlanDefinition.actor.option.typeReference` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PlanDefinition.actor.option.typeReference` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor.option.typeReference` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeReference.id</t>
@@ -563,6 +575,9 @@
   </si>
   <si>
     <t>Extension.extension:option.extension:typeReference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.typeReference</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeReference.value[x]</t>
@@ -585,7 +600,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.actor.option.role` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.role` is will have a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+Element `PlanDefinition.actor.option.role` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:role.id</t>
@@ -595,6 +610,9 @@
   </si>
   <si>
     <t>Extension.extension:option.extension:role.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.role</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:role.value[x]</t>
@@ -1772,7 +1790,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1814,7 +1832,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1829,15 +1847,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1917,7 +1935,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1929,21 +1947,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1968,14 +1986,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2044,7 +2062,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2147,7 +2165,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2252,7 +2270,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2295,7 +2313,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2337,7 +2355,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2352,15 +2370,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2383,13 +2401,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2440,7 +2458,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2452,21 +2470,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2491,14 +2509,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2567,7 +2585,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2670,7 +2688,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2773,13 +2791,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2804,14 +2822,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2880,10 +2898,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2983,10 +3001,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3088,10 +3106,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3131,7 +3149,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3173,7 +3191,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3188,15 +3206,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3219,13 +3237,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3252,13 +3270,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3276,7 +3294,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3288,21 +3306,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3327,14 +3345,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3403,10 +3421,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3506,10 +3524,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3611,10 +3629,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3654,7 +3672,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3696,7 +3714,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3711,15 +3729,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3742,13 +3760,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3799,7 +3817,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3811,21 +3829,21 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3850,16 +3868,16 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3928,10 +3946,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4031,10 +4049,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4136,10 +4154,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4179,7 +4197,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4221,7 +4239,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4236,15 +4254,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4267,16 +4285,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4326,7 +4344,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4338,21 +4356,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4377,14 +4395,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4453,10 +4471,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4556,10 +4574,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4661,10 +4679,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4704,7 +4722,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4746,7 +4764,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -4761,15 +4779,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4792,13 +4810,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4825,11 +4843,11 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -4847,7 +4865,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -4859,15 +4877,15 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4910,7 +4928,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4952,7 +4970,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -4967,15 +4985,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4998,13 +5016,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5055,7 +5073,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5067,18 +5085,18 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5160,7 +5178,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
@@ -5175,15 +5193,15 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5206,13 +5224,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5263,7 +5281,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5275,10 +5293,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="198">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -518,7 +518,7 @@
     <t>The type of participant in the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-participant-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeCanonical</t>
@@ -550,7 +550,7 @@
     <t>Extension.extension:option.extension:typeCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
 </t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>Extension.extension:option.extension:typeReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -620,12 +620,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-role-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:option.url</t>
@@ -995,7 +989,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="31.0078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4843,11 +4837,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -4885,7 +4881,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4928,7 +4924,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4990,7 +4986,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5016,13 +5012,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5224,13 +5220,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>

--- a/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.actor.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="191">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>A descriptive label for the actor.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.actor.title` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.title` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.actor.title` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.title</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -420,8 +416,7 @@
     <t>A description of how the actor fits into the overall actions of the plan definition.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.actor.description` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.description` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.actor.description` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -431,9 +426,6 @@
   </si>
   <si>
     <t>Extension.extension:description.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.description</t>
   </si>
   <si>
     <t>Extension.extension:description.value[x]</t>
@@ -455,8 +447,7 @@
     <t>The characteristics of the candidates that could serve as the actor.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.actor.option` is part of an existing definition because parent element `PlanDefinition.actor` requires a cross-version extension.
-Element `PlanDefinition.actor.option` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.actor.option` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.id</t>
@@ -477,8 +468,7 @@
     <t>The type of participant in the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.actor.option.type` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.type` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.actor.option.type` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:type.id</t>
@@ -497,9 +487,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.type</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:type.value[x]</t>
@@ -518,7 +505,7 @@
     <t>The type of participant in the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-participant-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-participant-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:typeCanonical</t>
@@ -530,8 +517,7 @@
     <t>Who or what can participate</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.actor.option.typeCanonical` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `PlanDefinition.actor.option.typeCanonical` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
@@ -544,13 +530,10 @@
     <t>Extension.extension:option.extension:typeCanonical.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.typeCanonical</t>
-  </si>
-  <si>
     <t>Extension.extension:option.extension:typeCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
 </t>
   </si>
   <si>
@@ -563,8 +546,7 @@
     <t>When this element is a reference, it SHOULD be a reference to a definitional resource (for example, a location type, rather than a specific location).</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.actor.option.typeReference` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.actor.option.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `PlanDefinition.actor.option.typeReference` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
@@ -577,13 +559,10 @@
     <t>Extension.extension:option.extension:typeReference.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.typeReference</t>
-  </si>
-  <si>
     <t>Extension.extension:option.extension:typeReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -599,8 +578,7 @@
     <t>The role the participant should play in performing the described action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.actor.option.role` is part of an existing definition because parent element `PlanDefinition.actor.option` requires a cross-version extension.
-Element `PlanDefinition.actor.option.role` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.actor.option.role` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:role.id</t>
@@ -610,9 +588,6 @@
   </si>
   <si>
     <t>Extension.extension:option.extension:role.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option.role</t>
   </si>
   <si>
     <t>Extension.extension:option.extension:role.value[x]</t>
@@ -623,9 +598,6 @@
   </si>
   <si>
     <t>Extension.extension:option.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor.option</t>
   </si>
   <si>
     <t>Extension.extension:option.value[x]</t>
@@ -989,7 +961,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="31.0078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.82421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1784,72 +1756,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1929,33 +1901,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1980,14 +1952,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2056,7 +2028,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2159,7 +2131,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2264,7 +2236,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2307,7 +2279,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2349,30 +2321,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2395,13 +2367,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2452,33 +2424,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2503,14 +2475,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2579,7 +2551,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2682,7 +2654,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2785,13 +2757,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2816,14 +2788,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2892,10 +2864,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2995,10 +2967,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3100,10 +3072,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3143,7 +3115,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3185,30 +3157,30 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3231,13 +3203,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3264,13 +3236,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3288,33 +3260,33 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3339,14 +3311,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3415,10 +3387,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3518,10 +3490,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3623,10 +3595,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3666,7 +3638,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3708,30 +3680,30 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3754,13 +3726,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3811,33 +3783,33 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3862,16 +3834,16 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3940,10 +3912,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4043,10 +4015,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4148,10 +4120,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4191,7 +4163,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4233,30 +4205,30 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4279,16 +4251,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4338,33 +4310,33 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4389,14 +4361,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4465,10 +4437,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4568,10 +4540,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4673,10 +4645,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4716,7 +4688,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4758,30 +4730,30 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4804,13 +4776,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4861,27 +4833,27 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4924,7 +4896,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4966,30 +4938,30 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5012,13 +4984,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5069,30 +5041,30 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5174,30 +5146,30 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5220,13 +5192,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5277,22 +5249,22 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
